--- a/hasil grafik.xlsx
+++ b/hasil grafik.xlsx
@@ -1,21 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28829"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kuliah\SMT 10\Skripsiku\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B7DB7C7-08F9-464E-8371-C945169D203D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="22770" windowHeight="12555"/>
+    <workbookView xWindow="-108" yWindow="180" windowWidth="23256" windowHeight="12888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="38">
   <si>
     <t>Individu 5 Iterasi 5</t>
   </si>
@@ -125,110 +143,17 @@
     <t>Individu 30 Iterasi 30</t>
   </si>
   <si>
-    <t>Percobaan 1</t>
+    <t>Average</t>
   </si>
   <si>
-    <t>Percobaan 2</t>
-  </si>
-  <si>
-    <t>Percobaan 3</t>
-  </si>
-  <si>
-    <t>Percobaan 4</t>
-  </si>
-  <si>
-    <t>Percobaan 5</t>
-  </si>
-  <si>
-    <t>Percobaan 6</t>
-  </si>
-  <si>
-    <t>Percobaan 7</t>
-  </si>
-  <si>
-    <t>Percobaan 8</t>
-  </si>
-  <si>
-    <t>Percobaan 9</t>
-  </si>
-  <si>
-    <t>Percobaan 10</t>
-  </si>
-  <si>
-    <t>Percobaan 11</t>
-  </si>
-  <si>
-    <t>Percobaan 12</t>
-  </si>
-  <si>
-    <t>Percobaan 13</t>
-  </si>
-  <si>
-    <t>Percobaan 14</t>
-  </si>
-  <si>
-    <t>Percobaan 15</t>
-  </si>
-  <si>
-    <t>Percobaan 16</t>
-  </si>
-  <si>
-    <t>Percobaan 17</t>
-  </si>
-  <si>
-    <t>Percobaan 18</t>
-  </si>
-  <si>
-    <t>Percobaan 19</t>
-  </si>
-  <si>
-    <t>Percobaan 20</t>
-  </si>
-  <si>
-    <t>Percobaan 21</t>
-  </si>
-  <si>
-    <t>Percobaan 22</t>
-  </si>
-  <si>
-    <t>Percobaan 23</t>
-  </si>
-  <si>
-    <t>Percobaan 24</t>
-  </si>
-  <si>
-    <t>Percobaan 25</t>
-  </si>
-  <si>
-    <t>Percobaan 26</t>
-  </si>
-  <si>
-    <t>Percobaan 27</t>
-  </si>
-  <si>
-    <t>Percobaan 28</t>
-  </si>
-  <si>
-    <t>Percobaan 29</t>
-  </si>
-  <si>
-    <t>Percobaan 30</t>
-  </si>
-  <si>
-    <t>Average</t>
+    <t>Percobaan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -236,353 +161,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -590,251 +178,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -842,70 +188,26 @@
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="id-ID"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -919,11 +221,11 @@
     <c:title>
       <c:tx>
         <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr defTabSz="914400">
-              <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -936,14 +238,17 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="id-ID" altLang="en-US"/>
-              <a:t>Penjadwalan</a:t>
+              <a:rPr lang="en-US"/>
+              <a:t>Hasil</a:t>
             </a:r>
-            <a:endParaRPr lang="id-ID" altLang="en-US"/>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Grafik</a:t>
+            </a:r>
+            <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -952,69 +257,199 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="id-ID"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
+      <c:areaChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$33:$AJ$33</c:f>
+              <c:strCache>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>Individu 5 Iterasi 5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Individu 5 Iterasi 10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Individu 5 Iterasi 15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Individu 5 Iterasi 20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Individu 5 Iterasi 25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Individu 5 Iterasi 30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Individu 10 Iterasi 5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Individu 10 Iterasi 10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Individu 10 Iterasi 15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Individu 10 Iterasi 20</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Individu 10 Iterasi 25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Individu 10 Iterasi 30</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Individu 15 Iterasi 5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Individu 15 Iterasi 10</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Individu 15 Iterasi 15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Individu 15 Iterasi 20</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Individu 15 Iterasi 25</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Individu 15 Iterasi 30</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Individu 20 Iterasi 5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Individu 20 Iterasi 10</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Individu 20 Iterasi 15</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Individu 20 Iterasi 20</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Individu 20 Iterasi 25</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Individu 20 Iterasi 30</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Individu 25 Iterasi 5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Individu 25 Iterasi 10</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Individu 25 Iterasi 15</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Individu 25 Iterasi 20</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Individu 25 Iterasi 25</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Individu 25 Iterasi 30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Individu 30 Iterasi 5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Individu 30 Iterasi 10</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Individu 30 Iterasi 15</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>Individu 30 Iterasi 20</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Individu 30 Iterasi 25</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>Individu 30 Iterasi 30</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$32:$AJ$32</c:f>
+              <c:f>Sheet1!$A$34:$AJ$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
-                  <c:v>18.9833333333333</c:v>
+                  <c:v>18.983333333333334</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>12.9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.7166666666667</c:v>
+                  <c:v>11.716666666666667</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.41666666666667</c:v>
+                  <c:v>9.4166666666666661</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.58333333333333</c:v>
+                  <c:v>9.5833333333333339</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.21666666666667</c:v>
+                  <c:v>9.2166666666666668</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>15.3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.6833333333333</c:v>
+                  <c:v>10.683333333333334</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.01666666666667</c:v>
+                  <c:v>9.0166666666666675</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>8.25</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.26666666666667</c:v>
+                  <c:v>8.2666666666666675</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>7.75</c:v>
@@ -1023,70 +458,70 @@
                   <c:v>14.55</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>10.05</c:v>
+                  <c:v>10.050000000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.88333333333333</c:v>
+                  <c:v>8.8833333333333329</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7.81666666666667</c:v>
+                  <c:v>7.8166666666666664</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>7.75</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7.83333333333333</c:v>
+                  <c:v>7.833333333333333</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>13.3666666666667</c:v>
+                  <c:v>13.366666666666667</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>9.15</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7.83333333333333</c:v>
+                  <c:v>7.833333333333333</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>7.35</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6.63333333333333</c:v>
+                  <c:v>6.6333333333333337</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6.76666666666667</c:v>
+                  <c:v>6.7666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>12.8666666666667</c:v>
+                  <c:v>12.866666666666667</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7.16666666666667</c:v>
+                  <c:v>7.166666666666667</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>6.43333333333333</c:v>
+                  <c:v>6.4333333333333336</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>6.33333333333333</c:v>
+                  <c:v>6.333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>12.15</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>8.95</c:v>
+                  <c:v>8.9499999999999993</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>6.9</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>6.36666666666667</c:v>
+                  <c:v>6.3666666666666663</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>6.41666666666667</c:v>
+                  <c:v>6.416666666666667</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>5.9</c:v>
@@ -1094,7 +529,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D2CE-4C83-A78A-69AB6C9EA0DF}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1104,19 +543,18 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="0"/>
-        <c:smooth val="0"/>
-        <c:axId val="758482021"/>
-        <c:axId val="978743303"/>
-      </c:lineChart>
+        <c:axId val="226675808"/>
+        <c:axId val="226676288"/>
+      </c:areaChart>
       <c:catAx>
-        <c:axId val="758482021"/>
+        <c:axId val="226675808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -1133,11 +571,11 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1149,9 +587,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="978743303"/>
+        <c:crossAx val="226676288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1159,7 +598,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="978743303"/>
+        <c:axId val="226676288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1191,11 +630,11 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1207,11 +646,12 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="758482021"/>
+        <c:crossAx val="226675808"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1222,7 +662,14 @@
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -1245,8 +692,9 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr lang="en-US"/>
+        <a:defRPr/>
       </a:pPr>
+      <a:endParaRPr lang="id-ID"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1298,7 +746,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1406,11 +854,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -1421,11 +864,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -1457,9 +895,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1515,22 +950,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -1580,9 +1016,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:floor>
@@ -1635,8 +1076,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1700,6 +1141,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -1768,19 +1220,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1814,28 +1267,34 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>1028700</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>1009650</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="2" name="Bagan 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{466A85CA-9EFF-3A38-A0BA-ADC9FD9898CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="45281850" y="6604000"/>
-        <a:ext cx="4572000" cy="2743200"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2127,36 +1586,36 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:AL33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AK34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y19" workbookViewId="0">
-      <selection activeCell="AC35" sqref="AC35"/>
+    <sheetView tabSelected="1" topLeftCell="AA26" workbookViewId="0">
+      <selection activeCell="AH41" sqref="AH41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="7" width="17.1111111111111" customWidth="1"/>
-    <col min="8" max="12" width="18.2222222222222" customWidth="1"/>
-    <col min="13" max="13" width="17.1111111111111" customWidth="1"/>
-    <col min="14" max="18" width="18.2222222222222" customWidth="1"/>
-    <col min="19" max="19" width="17.1111111111111" customWidth="1"/>
-    <col min="20" max="24" width="18.2222222222222" customWidth="1"/>
-    <col min="25" max="25" width="17.1111111111111" customWidth="1"/>
-    <col min="26" max="30" width="18.2222222222222" customWidth="1"/>
-    <col min="31" max="31" width="17.1111111111111" customWidth="1"/>
-    <col min="32" max="36" width="18.2222222222222" customWidth="1"/>
-    <col min="37" max="37" width="12.4444444444444" customWidth="1"/>
-    <col min="38" max="38" width="11.7777777777778" customWidth="1"/>
+    <col min="2" max="7" width="17.109375" customWidth="1"/>
+    <col min="8" max="12" width="18.21875" customWidth="1"/>
+    <col min="13" max="13" width="17.109375" customWidth="1"/>
+    <col min="14" max="18" width="18.21875" customWidth="1"/>
+    <col min="19" max="19" width="17.109375" customWidth="1"/>
+    <col min="20" max="24" width="18.21875" customWidth="1"/>
+    <col min="25" max="25" width="17.109375" customWidth="1"/>
+    <col min="26" max="30" width="18.21875" customWidth="1"/>
+    <col min="31" max="31" width="17.109375" customWidth="1"/>
+    <col min="32" max="36" width="18.21875" customWidth="1"/>
+    <col min="37" max="37" width="12.44140625" customWidth="1"/>
+    <col min="38" max="38" width="11.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:37">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2265,8 +1724,11 @@
       <c r="AJ1" t="s">
         <v>35</v>
       </c>
+      <c r="AK1" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="2" spans="1:38">
+    <row r="2" spans="1:37">
       <c r="A2" s="1">
         <v>19</v>
       </c>
@@ -2375,12 +1837,11 @@
       <c r="AJ2" s="1">
         <v>6</v>
       </c>
-      <c r="AK2"/>
-      <c r="AL2" t="s">
-        <v>36</v>
+      <c r="AK2" s="1">
+        <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:38">
+    <row r="3" spans="1:37">
       <c r="A3" s="1">
         <v>22.5</v>
       </c>
@@ -2489,12 +1950,11 @@
       <c r="AJ3" s="1">
         <v>4.5</v>
       </c>
-      <c r="AK3"/>
-      <c r="AL3" t="s">
-        <v>37</v>
+      <c r="AK3" s="1">
+        <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:38">
+    <row r="4" spans="1:37">
       <c r="A4" s="1">
         <v>17</v>
       </c>
@@ -2603,12 +2063,11 @@
       <c r="AJ4" s="1">
         <v>4.5</v>
       </c>
-      <c r="AK4"/>
-      <c r="AL4" t="s">
-        <v>38</v>
+      <c r="AK4" s="1">
+        <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:38">
+    <row r="5" spans="1:37">
       <c r="A5" s="1">
         <v>13.5</v>
       </c>
@@ -2717,12 +2176,11 @@
       <c r="AJ5" s="1">
         <v>7.5</v>
       </c>
-      <c r="AK5"/>
-      <c r="AL5" t="s">
-        <v>39</v>
+      <c r="AK5" s="1">
+        <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:38">
+    <row r="6" spans="1:37">
       <c r="A6" s="1">
         <v>17.5</v>
       </c>
@@ -2831,12 +2289,11 @@
       <c r="AJ6" s="1">
         <v>8.5</v>
       </c>
-      <c r="AK6"/>
-      <c r="AL6" t="s">
-        <v>40</v>
+      <c r="AK6" s="1">
+        <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:38">
+    <row r="7" spans="1:37">
       <c r="A7" s="1">
         <v>20</v>
       </c>
@@ -2945,12 +2402,11 @@
       <c r="AJ7" s="1">
         <v>7</v>
       </c>
-      <c r="AK7"/>
-      <c r="AL7" t="s">
-        <v>41</v>
+      <c r="AK7" s="1">
+        <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:38">
+    <row r="8" spans="1:37">
       <c r="A8" s="1">
         <v>16</v>
       </c>
@@ -3059,12 +2515,11 @@
       <c r="AJ8" s="1">
         <v>4</v>
       </c>
-      <c r="AK8"/>
-      <c r="AL8" t="s">
-        <v>42</v>
+      <c r="AK8" s="1">
+        <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:38">
+    <row r="9" spans="1:37">
       <c r="A9" s="1">
         <v>23.5</v>
       </c>
@@ -3173,12 +2628,11 @@
       <c r="AJ9" s="1">
         <v>8</v>
       </c>
-      <c r="AK9"/>
-      <c r="AL9" t="s">
-        <v>43</v>
+      <c r="AK9" s="1">
+        <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:38">
+    <row r="10" spans="1:37">
       <c r="A10" s="1">
         <v>16.5</v>
       </c>
@@ -3287,12 +2741,11 @@
       <c r="AJ10" s="1">
         <v>8</v>
       </c>
-      <c r="AK10"/>
-      <c r="AL10" t="s">
-        <v>44</v>
+      <c r="AK10" s="1">
+        <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:38">
+    <row r="11" spans="1:37">
       <c r="A11" s="1">
         <v>14</v>
       </c>
@@ -3401,12 +2854,11 @@
       <c r="AJ11" s="1">
         <v>7</v>
       </c>
-      <c r="AK11"/>
-      <c r="AL11" t="s">
-        <v>45</v>
+      <c r="AK11" s="1">
+        <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:38">
+    <row r="12" spans="1:37">
       <c r="A12" s="1">
         <v>21</v>
       </c>
@@ -3515,12 +2967,11 @@
       <c r="AJ12" s="1">
         <v>6</v>
       </c>
-      <c r="AK12"/>
-      <c r="AL12" t="s">
-        <v>46</v>
+      <c r="AK12" s="1">
+        <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:38">
+    <row r="13" spans="1:37">
       <c r="A13" s="1">
         <v>20</v>
       </c>
@@ -3629,12 +3080,11 @@
       <c r="AJ13" s="1">
         <v>5</v>
       </c>
-      <c r="AK13"/>
-      <c r="AL13" t="s">
-        <v>47</v>
+      <c r="AK13" s="1">
+        <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:38">
+    <row r="14" spans="1:37">
       <c r="A14" s="1">
         <v>13.5</v>
       </c>
@@ -3743,12 +3193,11 @@
       <c r="AJ14" s="1">
         <v>6.5</v>
       </c>
-      <c r="AK14"/>
-      <c r="AL14" t="s">
-        <v>48</v>
+      <c r="AK14" s="1">
+        <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:38">
+    <row r="15" spans="1:37">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -3857,12 +3306,11 @@
       <c r="AJ15" s="1">
         <v>6</v>
       </c>
-      <c r="AK15"/>
-      <c r="AL15" t="s">
-        <v>49</v>
+      <c r="AK15" s="1">
+        <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:38">
+    <row r="16" spans="1:37">
       <c r="A16" s="1">
         <v>19.5</v>
       </c>
@@ -3971,12 +3419,11 @@
       <c r="AJ16" s="1">
         <v>5</v>
       </c>
-      <c r="AK16"/>
-      <c r="AL16" t="s">
-        <v>50</v>
+      <c r="AK16" s="1">
+        <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:38">
+    <row r="17" spans="1:37">
       <c r="A17" s="1">
         <v>19.5</v>
       </c>
@@ -4085,12 +3532,11 @@
       <c r="AJ17" s="1">
         <v>3</v>
       </c>
-      <c r="AK17"/>
-      <c r="AL17" t="s">
-        <v>51</v>
+      <c r="AK17" s="1">
+        <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:38">
+    <row r="18" spans="1:37">
       <c r="A18" s="1">
         <v>23</v>
       </c>
@@ -4199,12 +3645,11 @@
       <c r="AJ18" s="1">
         <v>8</v>
       </c>
-      <c r="AK18"/>
-      <c r="AL18" t="s">
-        <v>52</v>
+      <c r="AK18" s="1">
+        <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:38">
+    <row r="19" spans="1:37">
       <c r="A19" s="1">
         <v>25</v>
       </c>
@@ -4313,12 +3758,11 @@
       <c r="AJ19" s="1">
         <v>4</v>
       </c>
-      <c r="AK19"/>
-      <c r="AL19" t="s">
-        <v>53</v>
+      <c r="AK19" s="1">
+        <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:38">
+    <row r="20" spans="1:37">
       <c r="A20" s="1">
         <v>22.5</v>
       </c>
@@ -4427,12 +3871,11 @@
       <c r="AJ20" s="1">
         <v>5.5</v>
       </c>
-      <c r="AK20"/>
-      <c r="AL20" t="s">
-        <v>54</v>
+      <c r="AK20" s="1">
+        <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:38">
+    <row r="21" spans="1:37">
       <c r="A21" s="1">
         <v>17.5</v>
       </c>
@@ -4541,12 +3984,11 @@
       <c r="AJ21" s="1">
         <v>6.5</v>
       </c>
-      <c r="AK21"/>
-      <c r="AL21" t="s">
-        <v>55</v>
+      <c r="AK21" s="1">
+        <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:38">
+    <row r="22" spans="1:37">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -4655,12 +4097,11 @@
       <c r="AJ22" s="1">
         <v>6</v>
       </c>
-      <c r="AK22"/>
-      <c r="AL22" t="s">
-        <v>56</v>
+      <c r="AK22" s="1">
+        <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:38">
+    <row r="23" spans="1:37">
       <c r="A23" s="1">
         <v>17</v>
       </c>
@@ -4769,12 +4210,11 @@
       <c r="AJ23" s="1">
         <v>8</v>
       </c>
-      <c r="AK23"/>
-      <c r="AL23" t="s">
-        <v>57</v>
+      <c r="AK23" s="1">
+        <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:38">
+    <row r="24" spans="1:37">
       <c r="A24" s="1">
         <v>24</v>
       </c>
@@ -4883,12 +4323,11 @@
       <c r="AJ24" s="1">
         <v>3.5</v>
       </c>
-      <c r="AK24"/>
-      <c r="AL24" t="s">
-        <v>58</v>
+      <c r="AK24" s="1">
+        <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:38">
+    <row r="25" spans="1:37">
       <c r="A25" s="1">
         <v>22.5</v>
       </c>
@@ -4997,12 +4436,11 @@
       <c r="AJ25" s="1">
         <v>5</v>
       </c>
-      <c r="AK25"/>
-      <c r="AL25" t="s">
-        <v>59</v>
+      <c r="AK25" s="1">
+        <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:38">
+    <row r="26" spans="1:37">
       <c r="A26" s="1">
         <v>19.5</v>
       </c>
@@ -5111,12 +4549,11 @@
       <c r="AJ26" s="1">
         <v>6</v>
       </c>
-      <c r="AK26"/>
-      <c r="AL26" t="s">
-        <v>60</v>
+      <c r="AK26" s="1">
+        <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:38">
+    <row r="27" spans="1:37">
       <c r="A27" s="1">
         <v>19.5</v>
       </c>
@@ -5225,12 +4662,11 @@
       <c r="AJ27" s="1">
         <v>8</v>
       </c>
-      <c r="AK27"/>
-      <c r="AL27" t="s">
-        <v>61</v>
+      <c r="AK27" s="1">
+        <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:38">
+    <row r="28" spans="1:37">
       <c r="A28" s="1">
         <v>15</v>
       </c>
@@ -5339,12 +4775,11 @@
       <c r="AJ28" s="1">
         <v>4.5</v>
       </c>
-      <c r="AK28"/>
-      <c r="AL28" t="s">
-        <v>62</v>
+      <c r="AK28" s="1">
+        <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:38">
+    <row r="29" spans="1:37">
       <c r="A29" s="1">
         <v>14.5</v>
       </c>
@@ -5453,12 +4888,11 @@
       <c r="AJ29" s="1">
         <v>2.5</v>
       </c>
-      <c r="AK29"/>
-      <c r="AL29" t="s">
-        <v>63</v>
+      <c r="AK29" s="1">
+        <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:38">
+    <row r="30" spans="1:37">
       <c r="A30" s="1">
         <v>21</v>
       </c>
@@ -5567,12 +5001,11 @@
       <c r="AJ30" s="1">
         <v>6.5</v>
       </c>
-      <c r="AK30"/>
-      <c r="AL30" t="s">
-        <v>64</v>
+      <c r="AK30" s="1">
+        <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:38">
+    <row r="31" spans="1:37">
       <c r="A31" s="1">
         <v>25.5</v>
       </c>
@@ -5681,158 +5114,13 @@
       <c r="AJ31" s="1">
         <v>6.5</v>
       </c>
-      <c r="AK31"/>
-      <c r="AL31" t="s">
-        <v>65</v>
+      <c r="AK31" s="1">
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:37">
-      <c r="A32">
-        <f t="shared" ref="A32:AI32" si="0">AVERAGE(A2:A31)</f>
-        <v>18.9833333333333</v>
-      </c>
-      <c r="B32">
-        <f t="shared" si="0"/>
-        <v>12.9</v>
-      </c>
-      <c r="C32">
-        <f t="shared" si="0"/>
-        <v>11.7166666666667</v>
-      </c>
-      <c r="D32">
-        <f t="shared" si="0"/>
-        <v>9.41666666666667</v>
-      </c>
-      <c r="E32">
-        <f t="shared" si="0"/>
-        <v>9.58333333333333</v>
-      </c>
-      <c r="F32">
-        <f t="shared" si="0"/>
-        <v>9.21666666666667</v>
-      </c>
-      <c r="G32">
-        <f t="shared" si="0"/>
-        <v>15.3</v>
-      </c>
-      <c r="H32">
-        <f t="shared" si="0"/>
-        <v>10.6833333333333</v>
-      </c>
-      <c r="I32">
-        <f t="shared" si="0"/>
-        <v>9.01666666666667</v>
-      </c>
-      <c r="J32">
-        <f t="shared" si="0"/>
-        <v>8.25</v>
-      </c>
-      <c r="K32">
-        <f t="shared" si="0"/>
-        <v>8.26666666666667</v>
-      </c>
-      <c r="L32">
-        <f t="shared" si="0"/>
-        <v>7.75</v>
-      </c>
-      <c r="M32">
-        <f t="shared" si="0"/>
-        <v>14.55</v>
-      </c>
-      <c r="N32">
-        <f t="shared" si="0"/>
-        <v>10.05</v>
-      </c>
-      <c r="O32">
-        <f t="shared" si="0"/>
-        <v>8.88333333333333</v>
-      </c>
-      <c r="P32">
-        <f t="shared" si="0"/>
-        <v>7.81666666666667</v>
-      </c>
-      <c r="Q32">
-        <f t="shared" si="0"/>
-        <v>7.75</v>
-      </c>
-      <c r="R32">
-        <f t="shared" si="0"/>
-        <v>7.83333333333333</v>
-      </c>
-      <c r="S32">
-        <f t="shared" si="0"/>
-        <v>13.3666666666667</v>
-      </c>
-      <c r="T32">
-        <f t="shared" si="0"/>
-        <v>9.15</v>
-      </c>
-      <c r="U32">
-        <f t="shared" si="0"/>
-        <v>7.83333333333333</v>
-      </c>
-      <c r="V32">
-        <f t="shared" si="0"/>
-        <v>7.35</v>
-      </c>
-      <c r="W32">
-        <f t="shared" si="0"/>
-        <v>6.63333333333333</v>
-      </c>
-      <c r="X32">
-        <f t="shared" si="0"/>
-        <v>6.76666666666667</v>
-      </c>
-      <c r="Y32">
-        <f t="shared" si="0"/>
-        <v>12.8666666666667</v>
-      </c>
-      <c r="Z32">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="AA32">
-        <f t="shared" si="0"/>
-        <v>7.16666666666667</v>
-      </c>
-      <c r="AB32">
-        <f t="shared" si="0"/>
-        <v>6.43333333333333</v>
-      </c>
-      <c r="AC32">
-        <f t="shared" si="0"/>
-        <v>6.5</v>
-      </c>
-      <c r="AD32">
-        <f t="shared" si="0"/>
-        <v>6.33333333333333</v>
-      </c>
-      <c r="AE32">
-        <f t="shared" si="0"/>
-        <v>12.15</v>
-      </c>
-      <c r="AF32">
-        <f t="shared" si="0"/>
-        <v>8.95</v>
-      </c>
-      <c r="AG32">
-        <f t="shared" si="0"/>
-        <v>6.9</v>
-      </c>
-      <c r="AH32">
-        <f t="shared" si="0"/>
-        <v>6.36666666666667</v>
-      </c>
-      <c r="AI32">
-        <f t="shared" si="0"/>
-        <v>6.41666666666667</v>
-      </c>
-      <c r="AJ32">
-        <f>AVERAGE(AJ2:AJ31)</f>
-        <v>5.9</v>
-      </c>
       <c r="AK32" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:36">
@@ -5945,9 +5233,155 @@
         <v>35</v>
       </c>
     </row>
+    <row r="34" spans="1:36">
+      <c r="A34">
+        <f>AVERAGE(A2:A31)</f>
+        <v>18.983333333333334</v>
+      </c>
+      <c r="B34">
+        <f>AVERAGE(B2:B31)</f>
+        <v>12.9</v>
+      </c>
+      <c r="C34">
+        <f>AVERAGE(C2:C31)</f>
+        <v>11.716666666666667</v>
+      </c>
+      <c r="D34">
+        <f>AVERAGE(D2:D31)</f>
+        <v>9.4166666666666661</v>
+      </c>
+      <c r="E34">
+        <f>AVERAGE(E2:E31)</f>
+        <v>9.5833333333333339</v>
+      </c>
+      <c r="F34">
+        <f>AVERAGE(F2:F31)</f>
+        <v>9.2166666666666668</v>
+      </c>
+      <c r="G34">
+        <f>AVERAGE(G2:G31)</f>
+        <v>15.3</v>
+      </c>
+      <c r="H34">
+        <f>AVERAGE(H2:H31)</f>
+        <v>10.683333333333334</v>
+      </c>
+      <c r="I34">
+        <f>AVERAGE(I2:I31)</f>
+        <v>9.0166666666666675</v>
+      </c>
+      <c r="J34">
+        <f>AVERAGE(J2:J31)</f>
+        <v>8.25</v>
+      </c>
+      <c r="K34">
+        <f>AVERAGE(K2:K31)</f>
+        <v>8.2666666666666675</v>
+      </c>
+      <c r="L34">
+        <f>AVERAGE(L2:L31)</f>
+        <v>7.75</v>
+      </c>
+      <c r="M34">
+        <f>AVERAGE(M2:M31)</f>
+        <v>14.55</v>
+      </c>
+      <c r="N34">
+        <f>AVERAGE(N2:N31)</f>
+        <v>10.050000000000001</v>
+      </c>
+      <c r="O34">
+        <f>AVERAGE(O2:O31)</f>
+        <v>8.8833333333333329</v>
+      </c>
+      <c r="P34">
+        <f>AVERAGE(P2:P31)</f>
+        <v>7.8166666666666664</v>
+      </c>
+      <c r="Q34">
+        <f>AVERAGE(Q2:Q31)</f>
+        <v>7.75</v>
+      </c>
+      <c r="R34">
+        <f>AVERAGE(R2:R31)</f>
+        <v>7.833333333333333</v>
+      </c>
+      <c r="S34">
+        <f>AVERAGE(S2:S31)</f>
+        <v>13.366666666666667</v>
+      </c>
+      <c r="T34">
+        <f>AVERAGE(T2:T31)</f>
+        <v>9.15</v>
+      </c>
+      <c r="U34">
+        <f>AVERAGE(U2:U31)</f>
+        <v>7.833333333333333</v>
+      </c>
+      <c r="V34">
+        <f>AVERAGE(V2:V31)</f>
+        <v>7.35</v>
+      </c>
+      <c r="W34">
+        <f>AVERAGE(W2:W31)</f>
+        <v>6.6333333333333337</v>
+      </c>
+      <c r="X34">
+        <f>AVERAGE(X2:X31)</f>
+        <v>6.7666666666666666</v>
+      </c>
+      <c r="Y34">
+        <f>AVERAGE(Y2:Y31)</f>
+        <v>12.866666666666667</v>
+      </c>
+      <c r="Z34">
+        <f>AVERAGE(Z2:Z31)</f>
+        <v>9</v>
+      </c>
+      <c r="AA34">
+        <f>AVERAGE(AA2:AA31)</f>
+        <v>7.166666666666667</v>
+      </c>
+      <c r="AB34">
+        <f>AVERAGE(AB2:AB31)</f>
+        <v>6.4333333333333336</v>
+      </c>
+      <c r="AC34">
+        <f>AVERAGE(AC2:AC31)</f>
+        <v>6.5</v>
+      </c>
+      <c r="AD34">
+        <f>AVERAGE(AD2:AD31)</f>
+        <v>6.333333333333333</v>
+      </c>
+      <c r="AE34">
+        <f>AVERAGE(AE2:AE31)</f>
+        <v>12.15</v>
+      </c>
+      <c r="AF34">
+        <f>AVERAGE(AF2:AF31)</f>
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="AG34">
+        <f>AVERAGE(AG2:AG31)</f>
+        <v>6.9</v>
+      </c>
+      <c r="AH34">
+        <f>AVERAGE(AH2:AH31)</f>
+        <v>6.3666666666666663</v>
+      </c>
+      <c r="AI34">
+        <f>AVERAGE(AI2:AI31)</f>
+        <v>6.416666666666667</v>
+      </c>
+      <c r="AJ34">
+        <f>AVERAGE(AJ2:AJ31)</f>
+        <v>5.9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>